--- a/examples/in/BC/Boundary_conditions.xlsx
+++ b/examples/in/BC/Boundary_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos_GitHub\dev_mode\examples\in\BC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5AB07BE-5173-4C75-B63B-79D5861A67E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92EC030-C8CD-4990-9720-DC584354C106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{474F0E5C-8FA2-47AA-BC23-C20F02EF1431}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{474F0E5C-8FA2-47AA-BC23-C20F02EF1431}"/>
   </bookViews>
   <sheets>
     <sheet name="well" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>well1_pump</t>
   </si>
@@ -54,19 +54,58 @@
   </si>
   <si>
     <t>well3_layer</t>
+  </si>
+  <si>
+    <t>left1_head</t>
+  </si>
+  <si>
+    <t>left1_cond</t>
+  </si>
+  <si>
+    <t>left2_head</t>
+  </si>
+  <si>
+    <t>left2_cond</t>
+  </si>
+  <si>
+    <t>right1_head</t>
+  </si>
+  <si>
+    <t>right1_cond</t>
+  </si>
+  <si>
+    <t>right2_head</t>
+  </si>
+  <si>
+    <t>right2_cond</t>
+  </si>
+  <si>
+    <t>zone1_rch</t>
+  </si>
+  <si>
+    <t>river1_cond</t>
+  </si>
+  <si>
+    <t>river1_deph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,7 +130,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4DBDBC-702B-4C11-ABBE-3E31DA6512D2}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +473,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -465,42 +504,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A004557-FBF1-429C-B715-23CB542601E6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>45</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+      <c r="C2">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0.01</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D511D9CF-DA44-485E-93F0-EBE4A1B0FD52}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>0.2/365/86400</f>
+        <v>6.341958396752918E-9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9644125F-F86E-49FC-9F6F-D356088C38D1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>